--- a/data/IZZI/AX_BRD_QPI.xlsx
+++ b/data/IZZI/AX_BRD_QPI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimingzhang/Desktop/Github/anorthosite_xenoliths/Data/IZZI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimingzhang/Github/AX_BD_PINT/data/IZZI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5120259-CCFB-D549-A113-FA7AFAB01A20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0343087E-56E8-8647-B5EF-2EDB7B9B4BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18460" yWindow="10260" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10360" yWindow="2940" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AX_BRD_QPI" sheetId="1" r:id="rId1"/>
@@ -673,10 +673,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -982,7 +978,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1350,10 +1346,10 @@
         <v>9</v>
       </c>
       <c r="C9" s="2">
-        <v>1091.83</v>
+        <v>1091.9000000000001</v>
       </c>
       <c r="D9" s="2">
-        <v>1091.6099999999999</v>
+        <v>1091.5</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>13</v>
